--- a/Batches/Batch_1.xlsx
+++ b/Batches/Batch_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,22 +463,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>http://www.triderma.com</t>
+          <t>http://www.amkinggroup.com</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -490,17 +490,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>http://www.truelark.com</t>
+          <t>http://www.alafairbiosciences.com</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -517,17 +517,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>http://www.tryndbuy.com</t>
+          <t>http://www.alltechllc.com</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>http://www.usjaclean.com</t>
+          <t>http://www.alturaengineering.com</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -554,7 +554,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -571,17 +571,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>http://www.ultramedicals.com</t>
+          <t>http://www.amarilloedc.com</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -590,6 +590,141 @@
         </is>
       </c>
       <c r="E6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>http://www.herbalgram.org</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>http://www.atlanticblowers.com</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>http://www.bioenergydevco.com</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>http://www.blogilates.com</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>http://www.boxerretail.com</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
